--- a/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙﾚﾎﾟｰﾄ.xlsx
+++ b/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙﾚﾎﾟｰﾄ.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>トラブルレポート</t>
   </si>
@@ -189,6 +189,21 @@
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>5_FGO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上級</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5_FGO</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -878,6 +893,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -896,17 +1027,154 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -928,27 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -968,238 +1215,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2062,7 +2077,7 @@
   <dimension ref="A1:BG158"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:AA22"/>
+      <selection activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2073,128 +2088,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="123" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="126" t="s">
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="133"/>
-      <c r="AI1" s="126" t="s">
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
-      <c r="AL1" s="124"/>
-      <c r="AM1" s="124"/>
-      <c r="AN1" s="125"/>
-      <c r="AO1" s="121" t="s">
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112"/>
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="121" t="s">
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="62"/>
+      <c r="AW1" s="97"/>
+      <c r="AX1" s="98"/>
+      <c r="AY1" s="98"/>
+      <c r="AZ1" s="98"/>
+      <c r="BA1" s="98"/>
+      <c r="BB1" s="99"/>
     </row>
     <row r="2" spans="1:56" ht="27.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="150"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="137"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="138"/>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="65"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="128" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="115"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="116"/>
+      <c r="AO2" s="110"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="110"/>
+      <c r="AW2" s="100"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="102"/>
     </row>
     <row r="3" spans="1:56" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28"/>
@@ -2253,33 +2272,37 @@
       <c r="BB3" s="29"/>
     </row>
     <row r="4" spans="1:56" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="50"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="115" t="s">
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="77"/>
-      <c r="P4" s="116"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="124"/>
       <c r="Q4" s="50"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
+      <c r="R4" s="60">
+        <v>2017</v>
+      </c>
+      <c r="S4" s="60"/>
       <c r="T4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="43"/>
+      <c r="U4" s="43">
+        <v>6</v>
+      </c>
       <c r="V4" s="30" t="s">
         <v>9</v>
       </c>
@@ -2319,38 +2342,44 @@
       <c r="BB4" s="32"/>
     </row>
     <row r="5" spans="1:56" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="99" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="47"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="117" t="s">
+      <c r="K5" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="100"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="93"/>
       <c r="T5" s="51"/>
-      <c r="U5" s="145"/>
-      <c r="V5" s="145"/>
+      <c r="U5" s="94">
+        <v>2017</v>
+      </c>
+      <c r="V5" s="94"/>
       <c r="W5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="45"/>
+      <c r="X5" s="45">
+        <v>6</v>
+      </c>
       <c r="Y5" s="15" t="s">
         <v>9</v>
       </c>
@@ -2358,34 +2387,34 @@
       <c r="AA5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB5" s="108" t="s">
+      <c r="AB5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="99" t="s">
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AH5" s="99"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="99"/>
+      <c r="AH5" s="89"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="89"/>
       <c r="AK5" s="44"/>
-      <c r="AL5" s="119"/>
-      <c r="AM5" s="119"/>
-      <c r="AN5" s="119"/>
-      <c r="AO5" s="119"/>
-      <c r="AP5" s="120"/>
-      <c r="AQ5" s="117" t="s">
+      <c r="AL5" s="125"/>
+      <c r="AM5" s="125"/>
+      <c r="AN5" s="125"/>
+      <c r="AO5" s="125"/>
+      <c r="AP5" s="126"/>
+      <c r="AQ5" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="99"/>
-      <c r="AS5" s="99"/>
-      <c r="AT5" s="100"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="93"/>
       <c r="AU5" s="56"/>
-      <c r="AV5" s="99"/>
-      <c r="AW5" s="99"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
       <c r="AX5" s="15" t="s">
         <v>8</v>
       </c>
@@ -2401,29 +2430,29 @@
       <c r="BD5" s="4"/>
     </row>
     <row r="6" spans="1:56" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="98"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="101" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="102"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="120"/>
       <c r="J6" s="52"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="118" t="s">
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="102"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="120"/>
       <c r="T6" s="52"/>
       <c r="U6" s="46"/>
       <c r="V6" s="46"/>
@@ -2436,82 +2465,82 @@
       <c r="AA6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="81"/>
-      <c r="AE6" s="81"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="101" t="s">
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="101"/>
-      <c r="AI6" s="101"/>
-      <c r="AJ6" s="101"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
       <c r="AK6" s="55"/>
-      <c r="AL6" s="111"/>
-      <c r="AM6" s="111"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111"/>
-      <c r="AP6" s="112"/>
-      <c r="AQ6" s="118" t="s">
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="77"/>
+      <c r="AP6" s="78"/>
+      <c r="AQ6" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="AR6" s="101"/>
-      <c r="AS6" s="101"/>
-      <c r="AT6" s="101"/>
-      <c r="AU6" s="101"/>
-      <c r="AV6" s="102"/>
-      <c r="AW6" s="140"/>
-      <c r="AX6" s="111"/>
-      <c r="AY6" s="111"/>
-      <c r="AZ6" s="111"/>
-      <c r="BA6" s="111"/>
-      <c r="BB6" s="141"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="82"/>
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="82"/>
+      <c r="AV6" s="120"/>
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="77"/>
+      <c r="AY6" s="77"/>
+      <c r="AZ6" s="77"/>
+      <c r="BA6" s="77"/>
+      <c r="BB6" s="91"/>
       <c r="BC6" s="4"/>
     </row>
     <row r="7" spans="1:56" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="99" t="s">
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="100"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="93"/>
       <c r="J7" s="51"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="142" t="s">
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="143"/>
-      <c r="AD7" s="143"/>
-      <c r="AE7" s="143"/>
-      <c r="AF7" s="144"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="81"/>
       <c r="AG7" s="57"/>
       <c r="AH7" s="31"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
       <c r="AK7" s="30" t="s">
         <v>8</v>
       </c>
@@ -2524,15 +2553,15 @@
         <v>10</v>
       </c>
       <c r="AP7" s="30"/>
-      <c r="AQ7" s="66" t="s">
+      <c r="AQ7" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="68"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="118"/>
       <c r="AU7" s="31"/>
-      <c r="AV7" s="67"/>
-      <c r="AW7" s="67"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
       <c r="AX7" s="30" t="s">
         <v>8</v>
       </c>
@@ -2547,44 +2576,44 @@
       <c r="BC7" s="6"/>
     </row>
     <row r="8" spans="1:56" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="101" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="120"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="142"/>
+      <c r="Q8" s="142"/>
+      <c r="R8" s="142"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="142"/>
+      <c r="X8" s="142"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="142"/>
       <c r="AA8" s="37"/>
-      <c r="AB8" s="142" t="s">
+      <c r="AB8" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="AC8" s="143"/>
-      <c r="AD8" s="143"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="144"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="81"/>
       <c r="AG8" s="57"/>
       <c r="AH8" s="31">
         <v>1</v>
@@ -2639,16 +2668,16 @@
       <c r="BB8" s="38"/>
     </row>
     <row r="9" spans="1:56" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="133"/>
       <c r="F9" s="50"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="30" t="s">
         <v>8</v>
       </c>
@@ -2674,13 +2703,13 @@
       <c r="Y9" s="30"/>
       <c r="Z9" s="30"/>
       <c r="AA9" s="32"/>
-      <c r="AB9" s="153" t="s">
+      <c r="AB9" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="154"/>
-      <c r="AE9" s="154"/>
-      <c r="AF9" s="155"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="69"/>
       <c r="AG9" s="58"/>
       <c r="AH9" s="22">
         <v>1</v>
@@ -2731,13 +2760,13 @@
       <c r="BB9" s="23"/>
     </row>
     <row r="10" spans="1:56" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="133"/>
       <c r="F10" s="50"/>
       <c r="G10" s="31">
         <v>1</v>
@@ -2790,17 +2819,17 @@
       <c r="Y10" s="31"/>
       <c r="Z10" s="31"/>
       <c r="AA10" s="38"/>
-      <c r="AB10" s="142" t="s">
+      <c r="AB10" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="AC10" s="143"/>
-      <c r="AD10" s="143"/>
-      <c r="AE10" s="143"/>
-      <c r="AF10" s="144"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="81"/>
       <c r="AG10" s="57"/>
       <c r="AH10" s="31"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="67"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
       <c r="AK10" s="30" t="s">
         <v>8</v>
       </c>
@@ -2813,15 +2842,15 @@
         <v>10</v>
       </c>
       <c r="AP10" s="30"/>
-      <c r="AQ10" s="66" t="s">
+      <c r="AQ10" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="AR10" s="67"/>
-      <c r="AS10" s="67"/>
-      <c r="AT10" s="68"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="118"/>
       <c r="AU10" s="57"/>
-      <c r="AV10" s="67"/>
-      <c r="AW10" s="67"/>
+      <c r="AV10" s="60"/>
+      <c r="AW10" s="60"/>
       <c r="AX10" s="30" t="s">
         <v>8</v>
       </c>
@@ -2835,13 +2864,13 @@
       </c>
     </row>
     <row r="11" spans="1:56" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="133"/>
       <c r="F11" s="50"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31" t="s">
@@ -2858,29 +2887,29 @@
       <c r="M11" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="103"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="103"/>
-      <c r="Z11" s="103"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
       <c r="AA11" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AB11" s="76" t="s">
+      <c r="AB11" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="78"/>
+      <c r="AC11" s="123"/>
+      <c r="AD11" s="123"/>
+      <c r="AE11" s="123"/>
+      <c r="AF11" s="133"/>
       <c r="AG11" s="57"/>
       <c r="AH11" s="31"/>
       <c r="AI11" s="31" t="s">
@@ -2897,53 +2926,53 @@
       <c r="AN11" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AO11" s="103"/>
-      <c r="AP11" s="103"/>
-      <c r="AQ11" s="103"/>
-      <c r="AR11" s="103"/>
-      <c r="AS11" s="103"/>
-      <c r="AT11" s="103"/>
-      <c r="AU11" s="103"/>
-      <c r="AV11" s="103"/>
-      <c r="AW11" s="103"/>
-      <c r="AX11" s="103"/>
-      <c r="AY11" s="103"/>
-      <c r="AZ11" s="103"/>
-      <c r="BA11" s="103"/>
+      <c r="AO11" s="76"/>
+      <c r="AP11" s="76"/>
+      <c r="AQ11" s="76"/>
+      <c r="AR11" s="76"/>
+      <c r="AS11" s="76"/>
+      <c r="AT11" s="76"/>
+      <c r="AU11" s="76"/>
+      <c r="AV11" s="76"/>
+      <c r="AW11" s="76"/>
+      <c r="AX11" s="76"/>
+      <c r="AY11" s="76"/>
+      <c r="AZ11" s="76"/>
+      <c r="BA11" s="76"/>
       <c r="BB11" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:56" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="53"/>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="85"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="157"/>
+      <c r="O12" s="157"/>
+      <c r="P12" s="157"/>
+      <c r="Q12" s="157"/>
+      <c r="R12" s="157"/>
+      <c r="S12" s="157"/>
+      <c r="T12" s="157"/>
+      <c r="U12" s="157"/>
+      <c r="V12" s="157"/>
+      <c r="W12" s="157"/>
+      <c r="X12" s="157"/>
+      <c r="Y12" s="157"/>
+      <c r="Z12" s="157"/>
+      <c r="AA12" s="158"/>
       <c r="AB12" s="59"/>
       <c r="AC12" s="48" t="s">
         <v>44</v>
@@ -2976,59 +3005,59 @@
     </row>
     <row r="13" spans="1:56" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="33"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="156"/>
-      <c r="AC13" s="157"/>
-      <c r="AD13" s="157"/>
-      <c r="AE13" s="157"/>
-      <c r="AF13" s="157"/>
-      <c r="AG13" s="157"/>
-      <c r="AH13" s="157"/>
-      <c r="AI13" s="157"/>
-      <c r="AJ13" s="157"/>
-      <c r="AK13" s="157"/>
-      <c r="AL13" s="157"/>
-      <c r="AM13" s="157"/>
-      <c r="AN13" s="157"/>
-      <c r="AO13" s="157"/>
-      <c r="AP13" s="157"/>
-      <c r="AQ13" s="157"/>
-      <c r="AR13" s="157"/>
-      <c r="AS13" s="157"/>
-      <c r="AT13" s="157"/>
-      <c r="AU13" s="157"/>
-      <c r="AV13" s="157"/>
-      <c r="AW13" s="157"/>
-      <c r="AX13" s="157"/>
-      <c r="AY13" s="157"/>
-      <c r="AZ13" s="157"/>
-      <c r="BA13" s="157"/>
-      <c r="BB13" s="158"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="160"/>
+      <c r="R13" s="160"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="160"/>
+      <c r="U13" s="160"/>
+      <c r="V13" s="160"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="160"/>
+      <c r="Y13" s="160"/>
+      <c r="Z13" s="160"/>
+      <c r="AA13" s="161"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="71"/>
+      <c r="AL13" s="71"/>
+      <c r="AM13" s="71"/>
+      <c r="AN13" s="71"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="71"/>
+      <c r="AQ13" s="71"/>
+      <c r="AR13" s="71"/>
+      <c r="AS13" s="71"/>
+      <c r="AT13" s="71"/>
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="71"/>
+      <c r="AW13" s="71"/>
+      <c r="AX13" s="71"/>
+      <c r="AY13" s="71"/>
+      <c r="AZ13" s="71"/>
+      <c r="BA13" s="71"/>
+      <c r="BB13" s="72"/>
     </row>
     <row r="14" spans="1:56" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="54"/>
@@ -3060,740 +3089,740 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
       <c r="AA14" s="20"/>
-      <c r="AB14" s="156"/>
-      <c r="AC14" s="157"/>
-      <c r="AD14" s="157"/>
-      <c r="AE14" s="157"/>
-      <c r="AF14" s="157"/>
-      <c r="AG14" s="157"/>
-      <c r="AH14" s="157"/>
-      <c r="AI14" s="157"/>
-      <c r="AJ14" s="157"/>
-      <c r="AK14" s="157"/>
-      <c r="AL14" s="157"/>
-      <c r="AM14" s="157"/>
-      <c r="AN14" s="157"/>
-      <c r="AO14" s="157"/>
-      <c r="AP14" s="157"/>
-      <c r="AQ14" s="157"/>
-      <c r="AR14" s="157"/>
-      <c r="AS14" s="157"/>
-      <c r="AT14" s="157"/>
-      <c r="AU14" s="157"/>
-      <c r="AV14" s="157"/>
-      <c r="AW14" s="157"/>
-      <c r="AX14" s="157"/>
-      <c r="AY14" s="157"/>
-      <c r="AZ14" s="157"/>
-      <c r="BA14" s="157"/>
-      <c r="BB14" s="158"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="71"/>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="71"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="71"/>
+      <c r="AR14" s="71"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="71"/>
+      <c r="AU14" s="71"/>
+      <c r="AV14" s="71"/>
+      <c r="AW14" s="71"/>
+      <c r="AX14" s="71"/>
+      <c r="AY14" s="71"/>
+      <c r="AZ14" s="71"/>
+      <c r="BA14" s="71"/>
+      <c r="BB14" s="72"/>
     </row>
     <row r="15" spans="1:56" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="156"/>
-      <c r="AC15" s="157"/>
-      <c r="AD15" s="157"/>
-      <c r="AE15" s="157"/>
-      <c r="AF15" s="157"/>
-      <c r="AG15" s="157"/>
-      <c r="AH15" s="157"/>
-      <c r="AI15" s="157"/>
-      <c r="AJ15" s="157"/>
-      <c r="AK15" s="157"/>
-      <c r="AL15" s="157"/>
-      <c r="AM15" s="157"/>
-      <c r="AN15" s="157"/>
-      <c r="AO15" s="157"/>
-      <c r="AP15" s="157"/>
-      <c r="AQ15" s="157"/>
-      <c r="AR15" s="157"/>
-      <c r="AS15" s="157"/>
-      <c r="AT15" s="157"/>
-      <c r="AU15" s="157"/>
-      <c r="AV15" s="157"/>
-      <c r="AW15" s="157"/>
-      <c r="AX15" s="157"/>
-      <c r="AY15" s="157"/>
-      <c r="AZ15" s="157"/>
-      <c r="BA15" s="157"/>
-      <c r="BB15" s="158"/>
+      <c r="A15" s="149"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="150"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="150"/>
+      <c r="T15" s="150"/>
+      <c r="U15" s="150"/>
+      <c r="V15" s="150"/>
+      <c r="W15" s="150"/>
+      <c r="X15" s="150"/>
+      <c r="Y15" s="150"/>
+      <c r="Z15" s="150"/>
+      <c r="AA15" s="151"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="71"/>
+      <c r="AL15" s="71"/>
+      <c r="AM15" s="71"/>
+      <c r="AN15" s="71"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="71"/>
+      <c r="AQ15" s="71"/>
+      <c r="AR15" s="71"/>
+      <c r="AS15" s="71"/>
+      <c r="AT15" s="71"/>
+      <c r="AU15" s="71"/>
+      <c r="AV15" s="71"/>
+      <c r="AW15" s="71"/>
+      <c r="AX15" s="71"/>
+      <c r="AY15" s="71"/>
+      <c r="AZ15" s="71"/>
+      <c r="BA15" s="71"/>
+      <c r="BB15" s="72"/>
       <c r="BC15" s="8"/>
     </row>
     <row r="16" spans="1:56" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="156"/>
-      <c r="AC16" s="157"/>
-      <c r="AD16" s="157"/>
-      <c r="AE16" s="157"/>
-      <c r="AF16" s="157"/>
-      <c r="AG16" s="157"/>
-      <c r="AH16" s="157"/>
-      <c r="AI16" s="157"/>
-      <c r="AJ16" s="157"/>
-      <c r="AK16" s="157"/>
-      <c r="AL16" s="157"/>
-      <c r="AM16" s="157"/>
-      <c r="AN16" s="157"/>
-      <c r="AO16" s="157"/>
-      <c r="AP16" s="157"/>
-      <c r="AQ16" s="157"/>
-      <c r="AR16" s="157"/>
-      <c r="AS16" s="157"/>
-      <c r="AT16" s="157"/>
-      <c r="AU16" s="157"/>
-      <c r="AV16" s="157"/>
-      <c r="AW16" s="157"/>
-      <c r="AX16" s="157"/>
-      <c r="AY16" s="157"/>
-      <c r="AZ16" s="157"/>
-      <c r="BA16" s="157"/>
-      <c r="BB16" s="158"/>
+      <c r="A16" s="152"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="150"/>
+      <c r="Q16" s="150"/>
+      <c r="R16" s="150"/>
+      <c r="S16" s="150"/>
+      <c r="T16" s="150"/>
+      <c r="U16" s="150"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="151"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="71"/>
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="71"/>
+      <c r="AN16" s="71"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="71"/>
+      <c r="AQ16" s="71"/>
+      <c r="AR16" s="71"/>
+      <c r="AS16" s="71"/>
+      <c r="AT16" s="71"/>
+      <c r="AU16" s="71"/>
+      <c r="AV16" s="71"/>
+      <c r="AW16" s="71"/>
+      <c r="AX16" s="71"/>
+      <c r="AY16" s="71"/>
+      <c r="AZ16" s="71"/>
+      <c r="BA16" s="71"/>
+      <c r="BB16" s="72"/>
       <c r="BC16" s="8"/>
     </row>
     <row r="17" spans="1:59" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="156"/>
-      <c r="AC17" s="157"/>
-      <c r="AD17" s="157"/>
-      <c r="AE17" s="157"/>
-      <c r="AF17" s="157"/>
-      <c r="AG17" s="157"/>
-      <c r="AH17" s="157"/>
-      <c r="AI17" s="157"/>
-      <c r="AJ17" s="157"/>
-      <c r="AK17" s="157"/>
-      <c r="AL17" s="157"/>
-      <c r="AM17" s="157"/>
-      <c r="AN17" s="157"/>
-      <c r="AO17" s="157"/>
-      <c r="AP17" s="157"/>
-      <c r="AQ17" s="157"/>
-      <c r="AR17" s="157"/>
-      <c r="AS17" s="157"/>
-      <c r="AT17" s="157"/>
-      <c r="AU17" s="157"/>
-      <c r="AV17" s="157"/>
-      <c r="AW17" s="157"/>
-      <c r="AX17" s="157"/>
-      <c r="AY17" s="157"/>
-      <c r="AZ17" s="157"/>
-      <c r="BA17" s="157"/>
-      <c r="BB17" s="158"/>
+      <c r="A17" s="152"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="150"/>
+      <c r="R17" s="150"/>
+      <c r="S17" s="150"/>
+      <c r="T17" s="150"/>
+      <c r="U17" s="150"/>
+      <c r="V17" s="150"/>
+      <c r="W17" s="150"/>
+      <c r="X17" s="150"/>
+      <c r="Y17" s="150"/>
+      <c r="Z17" s="150"/>
+      <c r="AA17" s="151"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="71"/>
+      <c r="AN17" s="71"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="71"/>
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="71"/>
+      <c r="AS17" s="71"/>
+      <c r="AT17" s="71"/>
+      <c r="AU17" s="71"/>
+      <c r="AV17" s="71"/>
+      <c r="AW17" s="71"/>
+      <c r="AX17" s="71"/>
+      <c r="AY17" s="71"/>
+      <c r="AZ17" s="71"/>
+      <c r="BA17" s="71"/>
+      <c r="BB17" s="72"/>
       <c r="BC17" s="8"/>
     </row>
     <row r="18" spans="1:59" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="72"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="156"/>
-      <c r="AC18" s="157"/>
-      <c r="AD18" s="157"/>
-      <c r="AE18" s="157"/>
-      <c r="AF18" s="157"/>
-      <c r="AG18" s="157"/>
-      <c r="AH18" s="157"/>
-      <c r="AI18" s="157"/>
-      <c r="AJ18" s="157"/>
-      <c r="AK18" s="157"/>
-      <c r="AL18" s="157"/>
-      <c r="AM18" s="157"/>
-      <c r="AN18" s="157"/>
-      <c r="AO18" s="157"/>
-      <c r="AP18" s="157"/>
-      <c r="AQ18" s="157"/>
-      <c r="AR18" s="157"/>
-      <c r="AS18" s="157"/>
-      <c r="AT18" s="157"/>
-      <c r="AU18" s="157"/>
-      <c r="AV18" s="157"/>
-      <c r="AW18" s="157"/>
-      <c r="AX18" s="157"/>
-      <c r="AY18" s="157"/>
-      <c r="AZ18" s="157"/>
-      <c r="BA18" s="157"/>
-      <c r="BB18" s="158"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="150"/>
+      <c r="L18" s="150"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="150"/>
+      <c r="Q18" s="150"/>
+      <c r="R18" s="150"/>
+      <c r="S18" s="150"/>
+      <c r="T18" s="150"/>
+      <c r="U18" s="150"/>
+      <c r="V18" s="150"/>
+      <c r="W18" s="150"/>
+      <c r="X18" s="150"/>
+      <c r="Y18" s="150"/>
+      <c r="Z18" s="150"/>
+      <c r="AA18" s="151"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="71"/>
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="71"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="71"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="71"/>
+      <c r="AW18" s="71"/>
+      <c r="AX18" s="71"/>
+      <c r="AY18" s="71"/>
+      <c r="AZ18" s="71"/>
+      <c r="BA18" s="71"/>
+      <c r="BB18" s="72"/>
       <c r="BC18" s="8"/>
     </row>
     <row r="19" spans="1:59" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="72"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="156"/>
-      <c r="AC19" s="157"/>
-      <c r="AD19" s="157"/>
-      <c r="AE19" s="157"/>
-      <c r="AF19" s="157"/>
-      <c r="AG19" s="157"/>
-      <c r="AH19" s="157"/>
-      <c r="AI19" s="157"/>
-      <c r="AJ19" s="157"/>
-      <c r="AK19" s="157"/>
-      <c r="AL19" s="157"/>
-      <c r="AM19" s="157"/>
-      <c r="AN19" s="157"/>
-      <c r="AO19" s="157"/>
-      <c r="AP19" s="157"/>
-      <c r="AQ19" s="157"/>
-      <c r="AR19" s="157"/>
-      <c r="AS19" s="157"/>
-      <c r="AT19" s="157"/>
-      <c r="AU19" s="157"/>
-      <c r="AV19" s="157"/>
-      <c r="AW19" s="157"/>
-      <c r="AX19" s="157"/>
-      <c r="AY19" s="157"/>
-      <c r="AZ19" s="157"/>
-      <c r="BA19" s="157"/>
-      <c r="BB19" s="158"/>
+      <c r="A19" s="152"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="150"/>
+      <c r="Q19" s="150"/>
+      <c r="R19" s="150"/>
+      <c r="S19" s="150"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="151"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="71"/>
+      <c r="AK19" s="71"/>
+      <c r="AL19" s="71"/>
+      <c r="AM19" s="71"/>
+      <c r="AN19" s="71"/>
+      <c r="AO19" s="71"/>
+      <c r="AP19" s="71"/>
+      <c r="AQ19" s="71"/>
+      <c r="AR19" s="71"/>
+      <c r="AS19" s="71"/>
+      <c r="AT19" s="71"/>
+      <c r="AU19" s="71"/>
+      <c r="AV19" s="71"/>
+      <c r="AW19" s="71"/>
+      <c r="AX19" s="71"/>
+      <c r="AY19" s="71"/>
+      <c r="AZ19" s="71"/>
+      <c r="BA19" s="71"/>
+      <c r="BB19" s="72"/>
       <c r="BC19" s="8"/>
     </row>
     <row r="20" spans="1:59" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="72"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="156"/>
-      <c r="AC20" s="157"/>
-      <c r="AD20" s="157"/>
-      <c r="AE20" s="157"/>
-      <c r="AF20" s="157"/>
-      <c r="AG20" s="157"/>
-      <c r="AH20" s="157"/>
-      <c r="AI20" s="157"/>
-      <c r="AJ20" s="157"/>
-      <c r="AK20" s="157"/>
-      <c r="AL20" s="157"/>
-      <c r="AM20" s="157"/>
-      <c r="AN20" s="157"/>
-      <c r="AO20" s="157"/>
-      <c r="AP20" s="157"/>
-      <c r="AQ20" s="157"/>
-      <c r="AR20" s="157"/>
-      <c r="AS20" s="157"/>
-      <c r="AT20" s="157"/>
-      <c r="AU20" s="157"/>
-      <c r="AV20" s="157"/>
-      <c r="AW20" s="157"/>
-      <c r="AX20" s="157"/>
-      <c r="AY20" s="157"/>
-      <c r="AZ20" s="157"/>
-      <c r="BA20" s="157"/>
-      <c r="BB20" s="158"/>
+      <c r="A20" s="152"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="150"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="150"/>
+      <c r="Q20" s="150"/>
+      <c r="R20" s="150"/>
+      <c r="S20" s="150"/>
+      <c r="T20" s="150"/>
+      <c r="U20" s="150"/>
+      <c r="V20" s="150"/>
+      <c r="W20" s="150"/>
+      <c r="X20" s="150"/>
+      <c r="Y20" s="150"/>
+      <c r="Z20" s="150"/>
+      <c r="AA20" s="151"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="71"/>
+      <c r="AK20" s="71"/>
+      <c r="AL20" s="71"/>
+      <c r="AM20" s="71"/>
+      <c r="AN20" s="71"/>
+      <c r="AO20" s="71"/>
+      <c r="AP20" s="71"/>
+      <c r="AQ20" s="71"/>
+      <c r="AR20" s="71"/>
+      <c r="AS20" s="71"/>
+      <c r="AT20" s="71"/>
+      <c r="AU20" s="71"/>
+      <c r="AV20" s="71"/>
+      <c r="AW20" s="71"/>
+      <c r="AX20" s="71"/>
+      <c r="AY20" s="71"/>
+      <c r="AZ20" s="71"/>
+      <c r="BA20" s="71"/>
+      <c r="BB20" s="72"/>
       <c r="BC20" s="8"/>
     </row>
     <row r="21" spans="1:59" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="156"/>
-      <c r="AC21" s="157"/>
-      <c r="AD21" s="157"/>
-      <c r="AE21" s="157"/>
-      <c r="AF21" s="157"/>
-      <c r="AG21" s="157"/>
-      <c r="AH21" s="157"/>
-      <c r="AI21" s="157"/>
-      <c r="AJ21" s="157"/>
-      <c r="AK21" s="157"/>
-      <c r="AL21" s="157"/>
-      <c r="AM21" s="157"/>
-      <c r="AN21" s="157"/>
-      <c r="AO21" s="157"/>
-      <c r="AP21" s="157"/>
-      <c r="AQ21" s="157"/>
-      <c r="AR21" s="157"/>
-      <c r="AS21" s="157"/>
-      <c r="AT21" s="157"/>
-      <c r="AU21" s="157"/>
-      <c r="AV21" s="157"/>
-      <c r="AW21" s="157"/>
-      <c r="AX21" s="157"/>
-      <c r="AY21" s="157"/>
-      <c r="AZ21" s="157"/>
-      <c r="BA21" s="157"/>
-      <c r="BB21" s="158"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="150"/>
+      <c r="Q21" s="150"/>
+      <c r="R21" s="150"/>
+      <c r="S21" s="150"/>
+      <c r="T21" s="150"/>
+      <c r="U21" s="150"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="150"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="150"/>
+      <c r="AA21" s="151"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="71"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="71"/>
+      <c r="AL21" s="71"/>
+      <c r="AM21" s="71"/>
+      <c r="AN21" s="71"/>
+      <c r="AO21" s="71"/>
+      <c r="AP21" s="71"/>
+      <c r="AQ21" s="71"/>
+      <c r="AR21" s="71"/>
+      <c r="AS21" s="71"/>
+      <c r="AT21" s="71"/>
+      <c r="AU21" s="71"/>
+      <c r="AV21" s="71"/>
+      <c r="AW21" s="71"/>
+      <c r="AX21" s="71"/>
+      <c r="AY21" s="71"/>
+      <c r="AZ21" s="71"/>
+      <c r="BA21" s="71"/>
+      <c r="BB21" s="72"/>
       <c r="BC21" s="8"/>
     </row>
     <row r="22" spans="1:59" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="156"/>
-      <c r="AC22" s="157"/>
-      <c r="AD22" s="157"/>
-      <c r="AE22" s="157"/>
-      <c r="AF22" s="157"/>
-      <c r="AG22" s="157"/>
-      <c r="AH22" s="157"/>
-      <c r="AI22" s="157"/>
-      <c r="AJ22" s="157"/>
-      <c r="AK22" s="157"/>
-      <c r="AL22" s="157"/>
-      <c r="AM22" s="157"/>
-      <c r="AN22" s="157"/>
-      <c r="AO22" s="157"/>
-      <c r="AP22" s="157"/>
-      <c r="AQ22" s="157"/>
-      <c r="AR22" s="157"/>
-      <c r="AS22" s="157"/>
-      <c r="AT22" s="157"/>
-      <c r="AU22" s="157"/>
-      <c r="AV22" s="157"/>
-      <c r="AW22" s="157"/>
-      <c r="AX22" s="157"/>
-      <c r="AY22" s="157"/>
-      <c r="AZ22" s="157"/>
-      <c r="BA22" s="157"/>
-      <c r="BB22" s="158"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="154"/>
+      <c r="U22" s="154"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="154"/>
+      <c r="X22" s="154"/>
+      <c r="Y22" s="154"/>
+      <c r="Z22" s="154"/>
+      <c r="AA22" s="155"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="71"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="71"/>
+      <c r="AL22" s="71"/>
+      <c r="AM22" s="71"/>
+      <c r="AN22" s="71"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="71"/>
+      <c r="AQ22" s="71"/>
+      <c r="AR22" s="71"/>
+      <c r="AS22" s="71"/>
+      <c r="AT22" s="71"/>
+      <c r="AU22" s="71"/>
+      <c r="AV22" s="71"/>
+      <c r="AW22" s="71"/>
+      <c r="AX22" s="71"/>
+      <c r="AY22" s="71"/>
+      <c r="AZ22" s="71"/>
+      <c r="BA22" s="71"/>
+      <c r="BB22" s="72"/>
       <c r="BC22" s="8"/>
     </row>
     <row r="23" spans="1:59" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="76" t="s">
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="76" t="s">
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="76" t="s">
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="133"/>
+      <c r="S23" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="78"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="123"/>
+      <c r="W23" s="123"/>
+      <c r="X23" s="133"/>
       <c r="Y23" s="21"/>
       <c r="Z23" s="22"/>
       <c r="AA23" s="23"/>
-      <c r="AB23" s="156"/>
-      <c r="AC23" s="157"/>
-      <c r="AD23" s="157"/>
-      <c r="AE23" s="157"/>
-      <c r="AF23" s="157"/>
-      <c r="AG23" s="157"/>
-      <c r="AH23" s="157"/>
-      <c r="AI23" s="157"/>
-      <c r="AJ23" s="157"/>
-      <c r="AK23" s="157"/>
-      <c r="AL23" s="157"/>
-      <c r="AM23" s="157"/>
-      <c r="AN23" s="157"/>
-      <c r="AO23" s="157"/>
-      <c r="AP23" s="157"/>
-      <c r="AQ23" s="157"/>
-      <c r="AR23" s="157"/>
-      <c r="AS23" s="157"/>
-      <c r="AT23" s="157"/>
-      <c r="AU23" s="157"/>
-      <c r="AV23" s="157"/>
-      <c r="AW23" s="157"/>
-      <c r="AX23" s="157"/>
-      <c r="AY23" s="157"/>
-      <c r="AZ23" s="157"/>
-      <c r="BA23" s="157"/>
-      <c r="BB23" s="158"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="71"/>
+      <c r="AL23" s="71"/>
+      <c r="AM23" s="71"/>
+      <c r="AN23" s="71"/>
+      <c r="AO23" s="71"/>
+      <c r="AP23" s="71"/>
+      <c r="AQ23" s="71"/>
+      <c r="AR23" s="71"/>
+      <c r="AS23" s="71"/>
+      <c r="AT23" s="71"/>
+      <c r="AU23" s="71"/>
+      <c r="AV23" s="71"/>
+      <c r="AW23" s="71"/>
+      <c r="AX23" s="71"/>
+      <c r="AY23" s="71"/>
+      <c r="AZ23" s="71"/>
+      <c r="BA23" s="71"/>
+      <c r="BB23" s="72"/>
       <c r="BC23" s="8"/>
     </row>
     <row r="24" spans="1:59" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="76" t="s">
+      <c r="B24" s="123"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="76" t="s">
+      <c r="E24" s="123"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="77"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="76" t="s">
+      <c r="H24" s="123"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="K24" s="77"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="76" t="s">
+      <c r="K24" s="123"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="77"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="76" t="s">
+      <c r="N24" s="123"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="76" t="s">
+      <c r="Q24" s="123"/>
+      <c r="R24" s="133"/>
+      <c r="S24" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="T24" s="77"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="76" t="s">
+      <c r="T24" s="123"/>
+      <c r="U24" s="133"/>
+      <c r="V24" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="W24" s="77"/>
-      <c r="X24" s="78"/>
+      <c r="W24" s="123"/>
+      <c r="X24" s="133"/>
       <c r="Y24" s="24"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="18"/>
-      <c r="AB24" s="156"/>
-      <c r="AC24" s="157"/>
-      <c r="AD24" s="157"/>
-      <c r="AE24" s="157"/>
-      <c r="AF24" s="157"/>
-      <c r="AG24" s="157"/>
-      <c r="AH24" s="157"/>
-      <c r="AI24" s="157"/>
-      <c r="AJ24" s="157"/>
-      <c r="AK24" s="157"/>
-      <c r="AL24" s="157"/>
-      <c r="AM24" s="157"/>
-      <c r="AN24" s="157"/>
-      <c r="AO24" s="157"/>
-      <c r="AP24" s="157"/>
-      <c r="AQ24" s="157"/>
-      <c r="AR24" s="157"/>
-      <c r="AS24" s="157"/>
-      <c r="AT24" s="157"/>
-      <c r="AU24" s="157"/>
-      <c r="AV24" s="157"/>
-      <c r="AW24" s="157"/>
-      <c r="AX24" s="157"/>
-      <c r="AY24" s="157"/>
-      <c r="AZ24" s="157"/>
-      <c r="BA24" s="157"/>
-      <c r="BB24" s="158"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="71"/>
+      <c r="AL24" s="71"/>
+      <c r="AM24" s="71"/>
+      <c r="AN24" s="71"/>
+      <c r="AO24" s="71"/>
+      <c r="AP24" s="71"/>
+      <c r="AQ24" s="71"/>
+      <c r="AR24" s="71"/>
+      <c r="AS24" s="71"/>
+      <c r="AT24" s="71"/>
+      <c r="AU24" s="71"/>
+      <c r="AV24" s="71"/>
+      <c r="AW24" s="71"/>
+      <c r="AX24" s="71"/>
+      <c r="AY24" s="71"/>
+      <c r="AZ24" s="71"/>
+      <c r="BA24" s="71"/>
+      <c r="BB24" s="72"/>
       <c r="BC24" s="8"/>
     </row>
     <row r="25" spans="1:59" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="89"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="91"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="144"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="144"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="144"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="143"/>
+      <c r="W25" s="144"/>
+      <c r="X25" s="145"/>
       <c r="Y25" s="24"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="18"/>
-      <c r="AB25" s="156"/>
-      <c r="AC25" s="157"/>
-      <c r="AD25" s="157"/>
-      <c r="AE25" s="157"/>
-      <c r="AF25" s="157"/>
-      <c r="AG25" s="157"/>
-      <c r="AH25" s="157"/>
-      <c r="AI25" s="157"/>
-      <c r="AJ25" s="157"/>
-      <c r="AK25" s="157"/>
-      <c r="AL25" s="157"/>
-      <c r="AM25" s="157"/>
-      <c r="AN25" s="157"/>
-      <c r="AO25" s="157"/>
-      <c r="AP25" s="157"/>
-      <c r="AQ25" s="157"/>
-      <c r="AR25" s="157"/>
-      <c r="AS25" s="157"/>
-      <c r="AT25" s="157"/>
-      <c r="AU25" s="157"/>
-      <c r="AV25" s="157"/>
-      <c r="AW25" s="157"/>
-      <c r="AX25" s="157"/>
-      <c r="AY25" s="157"/>
-      <c r="AZ25" s="157"/>
-      <c r="BA25" s="157"/>
-      <c r="BB25" s="158"/>
+      <c r="AB25" s="70"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="71"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="71"/>
+      <c r="AH25" s="71"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="71"/>
+      <c r="AK25" s="71"/>
+      <c r="AL25" s="71"/>
+      <c r="AM25" s="71"/>
+      <c r="AN25" s="71"/>
+      <c r="AO25" s="71"/>
+      <c r="AP25" s="71"/>
+      <c r="AQ25" s="71"/>
+      <c r="AR25" s="71"/>
+      <c r="AS25" s="71"/>
+      <c r="AT25" s="71"/>
+      <c r="AU25" s="71"/>
+      <c r="AV25" s="71"/>
+      <c r="AW25" s="71"/>
+      <c r="AX25" s="71"/>
+      <c r="AY25" s="71"/>
+      <c r="AZ25" s="71"/>
+      <c r="BA25" s="71"/>
+      <c r="BB25" s="72"/>
       <c r="BC25" s="8"/>
     </row>
     <row r="26" spans="1:59" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="92"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="94"/>
+      <c r="A26" s="146"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="147"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="147"/>
+      <c r="R26" s="148"/>
+      <c r="S26" s="146"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="148"/>
+      <c r="V26" s="146"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="148"/>
       <c r="Y26" s="25"/>
       <c r="Z26" s="26"/>
       <c r="AA26" s="27"/>
-      <c r="AB26" s="159"/>
-      <c r="AC26" s="160"/>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="160"/>
-      <c r="AF26" s="160"/>
-      <c r="AG26" s="160"/>
-      <c r="AH26" s="160"/>
-      <c r="AI26" s="160"/>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="160"/>
-      <c r="AL26" s="160"/>
-      <c r="AM26" s="160"/>
-      <c r="AN26" s="160"/>
-      <c r="AO26" s="160"/>
-      <c r="AP26" s="160"/>
-      <c r="AQ26" s="160"/>
-      <c r="AR26" s="160"/>
-      <c r="AS26" s="160"/>
-      <c r="AT26" s="160"/>
-      <c r="AU26" s="160"/>
-      <c r="AV26" s="160"/>
-      <c r="AW26" s="160"/>
-      <c r="AX26" s="160"/>
-      <c r="AY26" s="160"/>
-      <c r="AZ26" s="160"/>
-      <c r="BA26" s="160"/>
-      <c r="BB26" s="161"/>
+      <c r="AB26" s="73"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="74"/>
+      <c r="AF26" s="74"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="74"/>
+      <c r="AJ26" s="74"/>
+      <c r="AK26" s="74"/>
+      <c r="AL26" s="74"/>
+      <c r="AM26" s="74"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="74"/>
+      <c r="AP26" s="74"/>
+      <c r="AQ26" s="74"/>
+      <c r="AR26" s="74"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="74"/>
+      <c r="AU26" s="74"/>
+      <c r="AV26" s="74"/>
+      <c r="AW26" s="74"/>
+      <c r="AX26" s="74"/>
+      <c r="AY26" s="74"/>
+      <c r="AZ26" s="74"/>
+      <c r="BA26" s="74"/>
+      <c r="BB26" s="75"/>
       <c r="BC26" s="8"/>
     </row>
     <row r="27" spans="1:59" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4946,6 +4975,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="M25:O26"/>
+    <mergeCell ref="AW1:BB2"/>
+    <mergeCell ref="AQ10:AT10"/>
+    <mergeCell ref="A15:AA22"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="F12:AA13"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="K8:Z8"/>
+    <mergeCell ref="P25:R26"/>
+    <mergeCell ref="S25:U26"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V25:X26"/>
+    <mergeCell ref="A25:C26"/>
+    <mergeCell ref="D25:F26"/>
+    <mergeCell ref="G25:I26"/>
+    <mergeCell ref="J25:L26"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:X23"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E6"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="K7:AA7"/>
+    <mergeCell ref="AP1:AU2"/>
+    <mergeCell ref="W1:AH2"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AQ6:AV6"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="AL5:AP5"/>
     <mergeCell ref="AV10:AW10"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="AB9:AF9"/>
@@ -4962,70 +5055,6 @@
     <mergeCell ref="AV5:AW5"/>
     <mergeCell ref="AB8:AF8"/>
     <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="K7:AA7"/>
-    <mergeCell ref="AP1:AU2"/>
-    <mergeCell ref="W1:AH2"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="AQ7:AT7"/>
-    <mergeCell ref="AQ6:AV6"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:X23"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E6"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="K8:Z8"/>
-    <mergeCell ref="P25:R26"/>
-    <mergeCell ref="S25:U26"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V25:X26"/>
-    <mergeCell ref="A25:C26"/>
-    <mergeCell ref="D25:F26"/>
-    <mergeCell ref="G25:I26"/>
-    <mergeCell ref="J25:L26"/>
-    <mergeCell ref="M25:O26"/>
-    <mergeCell ref="AW1:BB2"/>
-    <mergeCell ref="AQ10:AT10"/>
-    <mergeCell ref="A15:AA22"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="F12:AA13"/>
-    <mergeCell ref="AB11:AF11"/>
-    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
